--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/3/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/3/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>2.15332</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>2153.32</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>2.52717</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>2527.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>2.64077</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>2640.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154946</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>2.67237</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>2672.37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185922</v>
       </c>
       <c r="B8" t="n">
-        <v>6.66754</v>
+        <v>2.69084</v>
       </c>
       <c r="C8" t="n">
-        <v>6667.54</v>
+        <v>2690.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216899</v>
       </c>
       <c r="B9" t="n">
-        <v>7.39322</v>
+        <v>2.70695</v>
       </c>
       <c r="C9" t="n">
-        <v>7393.22</v>
+        <v>2706.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247875</v>
       </c>
       <c r="B10" t="n">
-        <v>7.79588</v>
+        <v>2.72154</v>
       </c>
       <c r="C10" t="n">
-        <v>7795.88</v>
+        <v>2721.54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278892</v>
+        <v>0.278803</v>
       </c>
       <c r="B11" t="n">
-        <v>8.06166</v>
+        <v>2.73439</v>
       </c>
       <c r="C11" t="n">
-        <v>8061.66</v>
+        <v>2734.39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309817</v>
+        <v>0.309729</v>
       </c>
       <c r="B12" t="n">
-        <v>8.22644</v>
+        <v>2.74703</v>
       </c>
       <c r="C12" t="n">
-        <v>8226.440000000001</v>
+        <v>2747.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340742</v>
+        <v>0.340654</v>
       </c>
       <c r="B13" t="n">
-        <v>8.343579999999999</v>
+        <v>2.75859</v>
       </c>
       <c r="C13" t="n">
-        <v>8343.58</v>
+        <v>2758.59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371667</v>
+        <v>0.371579</v>
       </c>
       <c r="B14" t="n">
-        <v>8.40368</v>
+        <v>2.76955</v>
       </c>
       <c r="C14" t="n">
-        <v>8403.68</v>
+        <v>2769.55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402592</v>
+        <v>0.402504</v>
       </c>
       <c r="B15" t="n">
-        <v>8.45341</v>
+        <v>2.78017</v>
       </c>
       <c r="C15" t="n">
-        <v>8453.41</v>
+        <v>2780.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433517</v>
+        <v>0.433429</v>
       </c>
       <c r="B16" t="n">
-        <v>8.490729999999999</v>
+        <v>2.79028</v>
       </c>
       <c r="C16" t="n">
-        <v>8490.73</v>
+        <v>2790.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464442</v>
+        <v>0.464349</v>
       </c>
       <c r="B17" t="n">
-        <v>8.527040000000001</v>
+        <v>2.79987</v>
       </c>
       <c r="C17" t="n">
-        <v>8527.040000000001</v>
+        <v>2799.87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495367</v>
+        <v>0.495274</v>
       </c>
       <c r="B18" t="n">
-        <v>8.55241</v>
+        <v>2.80912</v>
       </c>
       <c r="C18" t="n">
-        <v>8552.41</v>
+        <v>2809.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526292</v>
+        <v>0.526199</v>
       </c>
       <c r="B19" t="n">
-        <v>8.575569999999999</v>
+        <v>2.81808</v>
       </c>
       <c r="C19" t="n">
-        <v>8575.57</v>
+        <v>2818.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557217</v>
+        <v>0.557124</v>
       </c>
       <c r="B20" t="n">
-        <v>8.59562</v>
+        <v>2.82666</v>
       </c>
       <c r="C20" t="n">
-        <v>8595.620000000001</v>
+        <v>2826.66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588143</v>
+        <v>0.588049</v>
       </c>
       <c r="B21" t="n">
-        <v>8.61153</v>
+        <v>2.83497</v>
       </c>
       <c r="C21" t="n">
-        <v>8611.530000000001</v>
+        <v>2834.97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619185</v>
+        <v>0.6190909999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>8.624930000000001</v>
+        <v>2.84305</v>
       </c>
       <c r="C22" t="n">
-        <v>8624.93</v>
+        <v>2843.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650268</v>
       </c>
       <c r="B23" t="n">
-        <v>8.63578</v>
+        <v>2.85089</v>
       </c>
       <c r="C23" t="n">
-        <v>8635.780000000001</v>
+        <v>2850.89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68153</v>
+        <v>0.681441</v>
       </c>
       <c r="B24" t="n">
-        <v>8.644770000000001</v>
+        <v>2.85851</v>
       </c>
       <c r="C24" t="n">
-        <v>8644.77</v>
+        <v>2858.51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712707</v>
+        <v>0.712614</v>
       </c>
       <c r="B25" t="n">
-        <v>8.651340000000001</v>
+        <v>2.86589</v>
       </c>
       <c r="C25" t="n">
-        <v>8651.34</v>
+        <v>2865.89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743879</v>
+        <v>0.743791</v>
       </c>
       <c r="B26" t="n">
-        <v>8.65569</v>
+        <v>2.87306</v>
       </c>
       <c r="C26" t="n">
-        <v>8655.690000000001</v>
+        <v>2873.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775056</v>
+        <v>0.774963</v>
       </c>
       <c r="B27" t="n">
-        <v>8.658430000000001</v>
+        <v>2.88005</v>
       </c>
       <c r="C27" t="n">
-        <v>8658.43</v>
+        <v>2880.05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806229</v>
+        <v>0.806136</v>
       </c>
       <c r="B28" t="n">
-        <v>8.65957</v>
+        <v>2.88684</v>
       </c>
       <c r="C28" t="n">
-        <v>8659.57</v>
+        <v>2886.84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837401</v>
+        <v>0.837313</v>
       </c>
       <c r="B29" t="n">
-        <v>8.658950000000001</v>
+        <v>2.89348</v>
       </c>
       <c r="C29" t="n">
-        <v>8658.950000000001</v>
+        <v>2893.48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868578</v>
+        <v>0.868485</v>
       </c>
       <c r="B30" t="n">
-        <v>8.65695</v>
+        <v>2.89995</v>
       </c>
       <c r="C30" t="n">
-        <v>8656.950000000001</v>
+        <v>2899.95</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899751</v>
+        <v>0.899658</v>
       </c>
       <c r="B31" t="n">
-        <v>8.653350000000001</v>
+        <v>2.90626</v>
       </c>
       <c r="C31" t="n">
-        <v>8653.35</v>
+        <v>2906.26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9309229999999999</v>
+        <v>0.930835</v>
       </c>
       <c r="B32" t="n">
-        <v>8.648350000000001</v>
+        <v>2.91242</v>
       </c>
       <c r="C32" t="n">
-        <v>8648.35</v>
+        <v>2912.42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962101</v>
+        <v>0.9620069999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>8.641920000000001</v>
+        <v>2.91844</v>
       </c>
       <c r="C33" t="n">
-        <v>8641.92</v>
+        <v>2918.44</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993273</v>
+        <v>0.993184</v>
       </c>
       <c r="B34" t="n">
-        <v>8.634069999999999</v>
+        <v>2.92434</v>
       </c>
       <c r="C34" t="n">
-        <v>8634.07</v>
+        <v>2924.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02458</v>
+        <v>1.02448</v>
       </c>
       <c r="B35" t="n">
-        <v>8.624409999999999</v>
+        <v>2.9301</v>
       </c>
       <c r="C35" t="n">
-        <v>8624.41</v>
+        <v>2930.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05596</v>
+        <v>1.05586</v>
       </c>
       <c r="B36" t="n">
-        <v>8.613299999999999</v>
+        <v>2.93572</v>
       </c>
       <c r="C36" t="n">
-        <v>8613.299999999999</v>
+        <v>2935.72</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08734</v>
+        <v>1.08725</v>
       </c>
       <c r="B37" t="n">
-        <v>8.6008</v>
+        <v>2.94123</v>
       </c>
       <c r="C37" t="n">
-        <v>8600.799999999999</v>
+        <v>2941.23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11873</v>
+        <v>1.11863</v>
       </c>
       <c r="B38" t="n">
-        <v>8.58703</v>
+        <v>2.94661</v>
       </c>
       <c r="C38" t="n">
-        <v>8587.030000000001</v>
+        <v>2946.61</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.1501</v>
+        <v>1.15</v>
       </c>
       <c r="B39" t="n">
-        <v>8.571820000000001</v>
+        <v>2.95189</v>
       </c>
       <c r="C39" t="n">
-        <v>8571.82</v>
+        <v>2951.89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18148</v>
+        <v>1.18139</v>
       </c>
       <c r="B40" t="n">
-        <v>8.555260000000001</v>
+        <v>2.95708</v>
       </c>
       <c r="C40" t="n">
-        <v>8555.26</v>
+        <v>2957.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21287</v>
+        <v>1.21277</v>
       </c>
       <c r="B41" t="n">
-        <v>8.53715</v>
+        <v>2.96216</v>
       </c>
       <c r="C41" t="n">
-        <v>8537.15</v>
+        <v>2962.16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24425</v>
+        <v>1.24415</v>
       </c>
       <c r="B42" t="n">
-        <v>8.517479999999999</v>
+        <v>2.96712</v>
       </c>
       <c r="C42" t="n">
-        <v>8517.48</v>
+        <v>2967.12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27563</v>
+        <v>1.27553</v>
       </c>
       <c r="B43" t="n">
-        <v>8.495930000000001</v>
+        <v>2.972</v>
       </c>
       <c r="C43" t="n">
-        <v>8495.93</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30701</v>
+        <v>1.3067</v>
       </c>
       <c r="B44" t="n">
-        <v>8.472659999999999</v>
+        <v>2.97678</v>
       </c>
       <c r="C44" t="n">
-        <v>8472.66</v>
+        <v>2976.78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33839</v>
+        <v>1.33767</v>
       </c>
       <c r="B45" t="n">
-        <v>8.44768</v>
+        <v>2.98147</v>
       </c>
       <c r="C45" t="n">
-        <v>8447.68</v>
+        <v>2981.47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36977</v>
+        <v>1.36864</v>
       </c>
       <c r="B46" t="n">
-        <v>8.42112</v>
+        <v>2.98608</v>
       </c>
       <c r="C46" t="n">
-        <v>8421.120000000001</v>
+        <v>2986.08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40115</v>
+        <v>1.3996</v>
       </c>
       <c r="B47" t="n">
-        <v>8.392899999999999</v>
+        <v>2.99059</v>
       </c>
       <c r="C47" t="n">
-        <v>8392.9</v>
+        <v>2990.59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43253</v>
+        <v>1.43058</v>
       </c>
       <c r="B48" t="n">
-        <v>8.3629</v>
+        <v>2.99503</v>
       </c>
       <c r="C48" t="n">
-        <v>8362.9</v>
+        <v>2995.03</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46391</v>
+        <v>1.46154</v>
       </c>
       <c r="B49" t="n">
-        <v>8.331020000000001</v>
+        <v>2.99938</v>
       </c>
       <c r="C49" t="n">
-        <v>8331.02</v>
+        <v>2999.38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49529</v>
+        <v>1.49251</v>
       </c>
       <c r="B50" t="n">
-        <v>8.29711</v>
+        <v>3.00364</v>
       </c>
       <c r="C50" t="n">
-        <v>8297.110000000001</v>
+        <v>3003.64</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52667</v>
+        <v>1.52348</v>
       </c>
       <c r="B51" t="n">
-        <v>8.26126</v>
+        <v>3.00783</v>
       </c>
       <c r="C51" t="n">
-        <v>8261.26</v>
+        <v>3007.83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55805</v>
+        <v>1.55444</v>
       </c>
       <c r="B52" t="n">
-        <v>8.223370000000001</v>
+        <v>3.01195</v>
       </c>
       <c r="C52" t="n">
-        <v>8223.370000000001</v>
+        <v>3011.95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58943</v>
+        <v>1.58541</v>
       </c>
       <c r="B53" t="n">
-        <v>8.183310000000001</v>
+        <v>3.01598</v>
       </c>
       <c r="C53" t="n">
-        <v>8183.31</v>
+        <v>3015.98</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.62058</v>
+        <v>1.61638</v>
       </c>
       <c r="B54" t="n">
-        <v>8.14119</v>
+        <v>3.01995</v>
       </c>
       <c r="C54" t="n">
-        <v>8141.19</v>
+        <v>3019.95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65155</v>
+        <v>1.64735</v>
       </c>
       <c r="B55" t="n">
-        <v>8.097050000000001</v>
+        <v>3.02384</v>
       </c>
       <c r="C55" t="n">
-        <v>8097.05</v>
+        <v>3023.84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68246</v>
+        <v>1.67793</v>
       </c>
       <c r="B56" t="n">
-        <v>8.05057</v>
+        <v>3.02767</v>
       </c>
       <c r="C56" t="n">
-        <v>8050.57</v>
+        <v>3027.67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71349</v>
+        <v>1.70848</v>
       </c>
       <c r="B57" t="n">
-        <v>8.001440000000001</v>
+        <v>3.03143</v>
       </c>
       <c r="C57" t="n">
-        <v>8001.44</v>
+        <v>3031.43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74449</v>
+        <v>1.73903</v>
       </c>
       <c r="B58" t="n">
-        <v>7.94997</v>
+        <v>3.03512</v>
       </c>
       <c r="C58" t="n">
-        <v>7949.97</v>
+        <v>3035.12</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77542</v>
+        <v>1.76959</v>
       </c>
       <c r="B59" t="n">
-        <v>7.895930000000001</v>
+        <v>3.03873</v>
       </c>
       <c r="C59" t="n">
-        <v>7895.93</v>
+        <v>3038.73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80653</v>
+        <v>1.80014</v>
       </c>
       <c r="B60" t="n">
-        <v>7.83863</v>
+        <v>3.0423</v>
       </c>
       <c r="C60" t="n">
-        <v>7838.63</v>
+        <v>3042.3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83737</v>
+        <v>1.8307</v>
       </c>
       <c r="B61" t="n">
-        <v>7.77899</v>
+        <v>3.0458</v>
       </c>
       <c r="C61" t="n">
-        <v>7778.99</v>
+        <v>3045.8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.8685</v>
+        <v>1.86125</v>
       </c>
       <c r="B62" t="n">
-        <v>7.71554</v>
+        <v>3.04924</v>
       </c>
       <c r="C62" t="n">
-        <v>7715.54</v>
+        <v>3049.24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89952</v>
+        <v>1.89209</v>
       </c>
       <c r="B63" t="n">
-        <v>7.64926</v>
+        <v>3.05267</v>
       </c>
       <c r="C63" t="n">
-        <v>7649.26</v>
+        <v>3052.67</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.93034</v>
+        <v>1.92366</v>
       </c>
       <c r="B64" t="n">
-        <v>7.58017</v>
+        <v>3.05612</v>
       </c>
       <c r="C64" t="n">
-        <v>7580.17</v>
+        <v>3056.12</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96156</v>
+        <v>1.95523</v>
       </c>
       <c r="B65" t="n">
-        <v>7.50716</v>
+        <v>3.05952</v>
       </c>
       <c r="C65" t="n">
-        <v>7507.16</v>
+        <v>3059.52</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99238</v>
+        <v>1.98681</v>
       </c>
       <c r="B66" t="n">
-        <v>7.43137</v>
+        <v>3.06285</v>
       </c>
       <c r="C66" t="n">
-        <v>7431.37</v>
+        <v>3062.85</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0235</v>
+        <v>2.01838</v>
       </c>
       <c r="B67" t="n">
-        <v>7.35155</v>
+        <v>3.06612</v>
       </c>
       <c r="C67" t="n">
-        <v>7351.55</v>
+        <v>3066.12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05449</v>
+        <v>2.04995</v>
       </c>
       <c r="B68" t="n">
-        <v>7.26862</v>
+        <v>3.06934</v>
       </c>
       <c r="C68" t="n">
-        <v>7268.62</v>
+        <v>3069.34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08548</v>
+        <v>2.08153</v>
       </c>
       <c r="B69" t="n">
-        <v>7.18299</v>
+        <v>3.0725</v>
       </c>
       <c r="C69" t="n">
-        <v>7182.99</v>
+        <v>3072.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.1166</v>
+        <v>2.1131</v>
       </c>
       <c r="B70" t="n">
-        <v>7.09355</v>
+        <v>3.07561</v>
       </c>
       <c r="C70" t="n">
-        <v>7093.55</v>
+        <v>3075.61</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14722</v>
+        <v>2.14468</v>
       </c>
       <c r="B71" t="n">
-        <v>7.0025</v>
+        <v>3.07867</v>
       </c>
       <c r="C71" t="n">
-        <v>7002.5</v>
+        <v>3078.67</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17868</v>
+        <v>2.17625</v>
       </c>
       <c r="B72" t="n">
-        <v>6.906770000000001</v>
+        <v>3.08168</v>
       </c>
       <c r="C72" t="n">
-        <v>6906.77</v>
+        <v>3081.68</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20926</v>
+        <v>2.20782</v>
       </c>
       <c r="B73" t="n">
-        <v>6.81033</v>
+        <v>3.08465</v>
       </c>
       <c r="C73" t="n">
-        <v>6810.33</v>
+        <v>3084.65</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.24054</v>
+        <v>2.23875</v>
       </c>
       <c r="B74" t="n">
-        <v>6.70924</v>
+        <v>3.08757</v>
       </c>
       <c r="C74" t="n">
-        <v>6709.24</v>
+        <v>3087.57</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27142</v>
+        <v>2.26948</v>
       </c>
       <c r="B75" t="n">
-        <v>6.607850000000001</v>
+        <v>3.09044</v>
       </c>
       <c r="C75" t="n">
-        <v>6607.85</v>
+        <v>3090.44</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30253</v>
+        <v>2.3002</v>
       </c>
       <c r="B76" t="n">
-        <v>6.502359999999999</v>
+        <v>3.09326</v>
       </c>
       <c r="C76" t="n">
-        <v>6502.36</v>
+        <v>3093.26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33329</v>
+        <v>2.33091</v>
       </c>
       <c r="B77" t="n">
-        <v>6.397790000000001</v>
+        <v>3.09604</v>
       </c>
       <c r="C77" t="n">
-        <v>6397.79</v>
+        <v>3096.04</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36457</v>
+        <v>2.36164</v>
       </c>
       <c r="B78" t="n">
-        <v>6.28885</v>
+        <v>3.09877</v>
       </c>
       <c r="C78" t="n">
-        <v>6288.85</v>
+        <v>3098.77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39538</v>
+        <v>2.39236</v>
       </c>
       <c r="B79" t="n">
-        <v>6.18135</v>
+        <v>3.10144</v>
       </c>
       <c r="C79" t="n">
-        <v>6181.35</v>
+        <v>3101.44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42658</v>
+        <v>2.42308</v>
       </c>
       <c r="B80" t="n">
-        <v>6.07116</v>
+        <v>3.10408</v>
       </c>
       <c r="C80" t="n">
-        <v>6071.16</v>
+        <v>3104.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45815</v>
+        <v>2.45379</v>
       </c>
       <c r="B81" t="n">
-        <v>5.95969</v>
+        <v>3.10668</v>
       </c>
       <c r="C81" t="n">
-        <v>5959.69</v>
+        <v>3106.68</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.49015</v>
+        <v>2.48452</v>
       </c>
       <c r="B82" t="n">
-        <v>5.84583</v>
+        <v>3.10922</v>
       </c>
       <c r="C82" t="n">
-        <v>5845.83</v>
+        <v>3109.22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.52173</v>
+        <v>2.51524</v>
       </c>
       <c r="B83" t="n">
-        <v>5.73473</v>
+        <v>3.11174</v>
       </c>
       <c r="C83" t="n">
-        <v>5734.73</v>
+        <v>3111.74</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55212</v>
+        <v>2.54596</v>
       </c>
       <c r="B84" t="n">
-        <v>5.626720000000001</v>
+        <v>3.1142</v>
       </c>
       <c r="C84" t="n">
-        <v>5626.72</v>
+        <v>3114.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58252</v>
+        <v>2.57667</v>
       </c>
       <c r="B85" t="n">
-        <v>5.521770000000001</v>
+        <v>3.11663</v>
       </c>
       <c r="C85" t="n">
-        <v>5521.77</v>
+        <v>3116.63</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61158</v>
+        <v>2.6074</v>
       </c>
       <c r="B86" t="n">
-        <v>5.41882</v>
+        <v>3.11903</v>
       </c>
       <c r="C86" t="n">
-        <v>5418.82</v>
+        <v>3119.03</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64431</v>
+        <v>2.63812</v>
       </c>
       <c r="B87" t="n">
-        <v>5.30505</v>
+        <v>3.12136</v>
       </c>
       <c r="C87" t="n">
-        <v>5305.05</v>
+        <v>3121.36</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67664</v>
+        <v>2.66883</v>
       </c>
       <c r="B88" t="n">
-        <v>5.19478</v>
+        <v>3.12367</v>
       </c>
       <c r="C88" t="n">
-        <v>5194.78</v>
+        <v>3123.67</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70772</v>
+        <v>2.69956</v>
       </c>
       <c r="B89" t="n">
-        <v>5.088760000000001</v>
+        <v>3.12593</v>
       </c>
       <c r="C89" t="n">
-        <v>5088.76</v>
+        <v>3125.93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73881</v>
+        <v>2.73028</v>
       </c>
       <c r="B90" t="n">
-        <v>4.98704</v>
+        <v>3.12817</v>
       </c>
       <c r="C90" t="n">
-        <v>4987.04</v>
+        <v>3128.17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76899</v>
+        <v>2.761</v>
       </c>
       <c r="B91" t="n">
-        <v>4.88936</v>
+        <v>3.13036</v>
       </c>
       <c r="C91" t="n">
-        <v>4889.36</v>
+        <v>3130.36</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79824</v>
+        <v>2.79171</v>
       </c>
       <c r="B92" t="n">
-        <v>4.79653</v>
+        <v>3.1325</v>
       </c>
       <c r="C92" t="n">
-        <v>4796.53</v>
+        <v>3132.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82757</v>
+        <v>2.82244</v>
       </c>
       <c r="B93" t="n">
-        <v>4.70695</v>
+        <v>3.13461</v>
       </c>
       <c r="C93" t="n">
-        <v>4706.95</v>
+        <v>3134.61</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8608</v>
+        <v>2.85316</v>
       </c>
       <c r="B94" t="n">
-        <v>4.60853</v>
+        <v>3.1367</v>
       </c>
       <c r="C94" t="n">
-        <v>4608.53</v>
+        <v>3136.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.8928</v>
+        <v>2.88387</v>
       </c>
       <c r="B95" t="n">
-        <v>4.5156</v>
+        <v>3.13873</v>
       </c>
       <c r="C95" t="n">
-        <v>4515.6</v>
+        <v>3138.73</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.9248</v>
+        <v>2.9146</v>
       </c>
       <c r="B96" t="n">
-        <v>4.426600000000001</v>
+        <v>3.14073</v>
       </c>
       <c r="C96" t="n">
-        <v>4426.6</v>
+        <v>3140.73</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.9568</v>
+        <v>2.94532</v>
       </c>
       <c r="B97" t="n">
-        <v>4.34175</v>
+        <v>3.14269</v>
       </c>
       <c r="C97" t="n">
-        <v>4341.75</v>
+        <v>3142.69</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98674</v>
+        <v>2.9757</v>
       </c>
       <c r="B98" t="n">
-        <v>4.26112</v>
+        <v>3.1446</v>
       </c>
       <c r="C98" t="n">
-        <v>4261.12</v>
+        <v>3144.6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.0166</v>
+        <v>3.00557</v>
       </c>
       <c r="B99" t="n">
-        <v>4.184</v>
+        <v>3.14647</v>
       </c>
       <c r="C99" t="n">
-        <v>4184</v>
+        <v>3146.47</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04647</v>
+        <v>3.03544</v>
       </c>
       <c r="B100" t="n">
-        <v>4.11005</v>
+        <v>3.14831</v>
       </c>
       <c r="C100" t="n">
-        <v>4110.05</v>
+        <v>3148.31</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07622</v>
+        <v>3.0653</v>
       </c>
       <c r="B101" t="n">
-        <v>4.04287</v>
+        <v>3.15011</v>
       </c>
       <c r="C101" t="n">
-        <v>4042.87</v>
+        <v>3150.11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10438</v>
+        <v>3.09517</v>
       </c>
       <c r="B102" t="n">
-        <v>3.99282</v>
+        <v>3.15188</v>
       </c>
       <c r="C102" t="n">
-        <v>3992.82</v>
+        <v>3151.88</v>
       </c>
     </row>
   </sheetData>
